--- a/plots/Tabela Probabilidades (casa).xlsx
+++ b/plots/Tabela Probabilidades (casa).xlsx
@@ -88,1312 +88,1312 @@
     <t>Uruguay Apertura</t>
   </si>
   <si>
-    <t>Borussia Dortmund 50.00%</t>
-  </si>
-  <si>
-    <t>Cologne 50.00%</t>
-  </si>
-  <si>
-    <t>Eintracht Frankfurt 46.70%</t>
-  </si>
-  <si>
-    <t>Augsburg 40.00%</t>
-  </si>
-  <si>
-    <t>Schalke 38.50%</t>
-  </si>
-  <si>
-    <t>Bochum 37.50%</t>
-  </si>
-  <si>
-    <t>Wolfsburg 35.70%</t>
-  </si>
-  <si>
-    <t>Union Berlin 35.30%</t>
-  </si>
-  <si>
-    <t>Hertha Berlin 33.30%</t>
-  </si>
-  <si>
-    <t>RB Leipzig 33.30%</t>
-  </si>
-  <si>
-    <t>TSG Hoffenheim 28.60%</t>
-  </si>
-  <si>
-    <t>Mainz 26.70%</t>
-  </si>
-  <si>
-    <t>Werder Bremen 21.40%</t>
-  </si>
-  <si>
-    <t>VfB Stuttgart 20.00%</t>
-  </si>
-  <si>
-    <t>Bayern Munich 18.80%</t>
-  </si>
-  <si>
-    <t>Bayer Leverkusen 13.30%</t>
-  </si>
-  <si>
-    <t>SC Freiburg 7.10%</t>
+    <t>Wolfsburg 0.00%</t>
+  </si>
+  <si>
+    <t>Bochum 0.00%</t>
+  </si>
+  <si>
+    <t>Union Berlin 0.00%</t>
+  </si>
+  <si>
+    <t>Borussia Dortmund 0.00%</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt 0.00%</t>
+  </si>
+  <si>
+    <t>VfB Stuttgart 0.00%</t>
+  </si>
+  <si>
+    <t>Bayer Leverkusen 0.00%</t>
+  </si>
+  <si>
+    <t>Bayern Munich 0.00%</t>
+  </si>
+  <si>
+    <t>Hertha Berlin 0.00%</t>
+  </si>
+  <si>
+    <t>SC Freiburg 0.00%</t>
+  </si>
+  <si>
+    <t>Augsburg 0.00%</t>
+  </si>
+  <si>
+    <t>TSG Hoffenheim 0.00%</t>
+  </si>
+  <si>
+    <t>Schalke 0.00%</t>
+  </si>
+  <si>
+    <t>Werder Bremen 0.00%</t>
+  </si>
+  <si>
+    <t>RB Leipzig 0.00%</t>
+  </si>
+  <si>
+    <t>Cologne 0.00%</t>
+  </si>
+  <si>
+    <t>Mainz 0.00%</t>
   </si>
   <si>
     <t>Borussia M'gladbach 0.00%</t>
   </si>
   <si>
-    <t>Newcastle 53.30%</t>
-  </si>
-  <si>
-    <t>Wolverhampton 53.30%</t>
-  </si>
-  <si>
-    <t>Brentford 50.00%</t>
-  </si>
-  <si>
-    <t>Southampton 47.10%</t>
-  </si>
-  <si>
-    <t>Arsenal 46.70%</t>
-  </si>
-  <si>
-    <t>Bournemouth 46.70%</t>
-  </si>
-  <si>
-    <t>Chelsea 40.00%</t>
-  </si>
-  <si>
-    <t>Liverpool 38.50%</t>
-  </si>
-  <si>
-    <t>Man Utd 37.50%</t>
-  </si>
-  <si>
-    <t>Fulham 33.30%</t>
-  </si>
-  <si>
-    <t>Aston Villa 31.20%</t>
-  </si>
-  <si>
-    <t>Man City 31.20%</t>
-  </si>
-  <si>
-    <t>Nottm Forest 30.80%</t>
-  </si>
-  <si>
-    <t>Everton 28.60%</t>
-  </si>
-  <si>
-    <t>Leicester 28.60%</t>
-  </si>
-  <si>
-    <t>Brighton 26.70%</t>
-  </si>
-  <si>
-    <t>Crystal Palace 26.70%</t>
-  </si>
-  <si>
-    <t>Leeds 20.00%</t>
-  </si>
-  <si>
-    <t>West Ham 15.40%</t>
-  </si>
-  <si>
-    <t>Tottenham 7.10%</t>
-  </si>
-  <si>
-    <t>Bradford 50.00%</t>
-  </si>
-  <si>
-    <t>Grimsby 50.00%</t>
-  </si>
-  <si>
-    <t>Stevenage 50.00%</t>
-  </si>
-  <si>
-    <t>Mansfield 42.90%</t>
-  </si>
-  <si>
-    <t>Colchester 40.00%</t>
-  </si>
-  <si>
-    <t>Harrogate Town 38.50%</t>
-  </si>
-  <si>
-    <t>Hartlepool 37.50%</t>
-  </si>
-  <si>
-    <t>Walsall 35.70%</t>
-  </si>
-  <si>
-    <t>Crewe 30.80%</t>
-  </si>
-  <si>
-    <t>Tranmere 30.80%</t>
-  </si>
-  <si>
-    <t>Barrow 30.80%</t>
-  </si>
-  <si>
-    <t>Stockport 28.60%</t>
-  </si>
-  <si>
-    <t>Leyton Orient 28.60%</t>
-  </si>
-  <si>
-    <t>Rochdale 28.60%</t>
-  </si>
-  <si>
-    <t>Northampton 28.60%</t>
-  </si>
-  <si>
-    <t>Swindon 28.60%</t>
-  </si>
-  <si>
-    <t>Doncaster 28.60%</t>
-  </si>
-  <si>
-    <t>Salford City 28.60%</t>
-  </si>
-  <si>
-    <t>Gillingham 28.60%</t>
-  </si>
-  <si>
-    <t>Sutton Utd 28.60%</t>
-  </si>
-  <si>
-    <t>Carlisle 26.70%</t>
-  </si>
-  <si>
-    <t>Crawley Town 23.10%</t>
-  </si>
-  <si>
-    <t>Newport County 23.10%</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon 23.10%</t>
-  </si>
-  <si>
-    <t>Hamburg 58.30%</t>
-  </si>
-  <si>
-    <t>Holstein Kiel 56.20%</t>
-  </si>
-  <si>
-    <t>Darmstadt 56.20%</t>
-  </si>
-  <si>
-    <t>Heidenheim 53.80%</t>
-  </si>
-  <si>
-    <t>Arminia Bielefeld 53.30%</t>
-  </si>
-  <si>
-    <t>Nurnberg 50.00%</t>
-  </si>
-  <si>
-    <t>Hansa Rostock 50.00%</t>
-  </si>
-  <si>
-    <t>Fortuna Dusseldorf 42.90%</t>
-  </si>
-  <si>
-    <t>Greuther Furth 42.90%</t>
-  </si>
-  <si>
-    <t>Karlsruher SC 40.00%</t>
-  </si>
-  <si>
-    <t>Paderborn 38.50%</t>
-  </si>
-  <si>
-    <t>Kaiserslautern 33.30%</t>
-  </si>
-  <si>
-    <t>Hannover 96 26.70%</t>
-  </si>
-  <si>
-    <t>Jahn Regensburg 26.70%</t>
-  </si>
-  <si>
-    <t>Eintracht Braunschweig 21.40%</t>
-  </si>
-  <si>
-    <t>St Pauli 20.00%</t>
-  </si>
-  <si>
-    <t>Magdeburg 13.30%</t>
-  </si>
-  <si>
-    <t>Sandhausen 12.50%</t>
-  </si>
-  <si>
-    <t>Sampdoria 57.10%</t>
-  </si>
-  <si>
-    <t>Fiorentina 50.00%</t>
-  </si>
-  <si>
-    <t>Lecce 46.70%</t>
-  </si>
-  <si>
-    <t>Monza 46.20%</t>
-  </si>
-  <si>
-    <t>Torino 46.20%</t>
-  </si>
-  <si>
-    <t>Bologna 46.20%</t>
-  </si>
-  <si>
-    <t>Salernitana 42.90%</t>
-  </si>
-  <si>
-    <t>Lazio 35.70%</t>
-  </si>
-  <si>
-    <t>Juventus 35.70%</t>
-  </si>
-  <si>
-    <t>Roma 35.70%</t>
-  </si>
-  <si>
-    <t>Cremonese 33.30%</t>
-  </si>
-  <si>
-    <t>Udinese 31.20%</t>
-  </si>
-  <si>
-    <t>Napoli 31.20%</t>
-  </si>
-  <si>
-    <t>Inter Milan 28.60%</t>
-  </si>
-  <si>
-    <t>Atalanta 28.60%</t>
-  </si>
-  <si>
-    <t>Empoli 26.70%</t>
-  </si>
-  <si>
-    <t>AC Milan 20.00%</t>
-  </si>
-  <si>
-    <t>Spezia 20.00%</t>
-  </si>
-  <si>
-    <t>Sassuolo 13.30%</t>
-  </si>
-  <si>
-    <t>Verona 12.50%</t>
-  </si>
-  <si>
-    <t>Parma 57.10%</t>
-  </si>
-  <si>
-    <t>Venezia 50.00%</t>
-  </si>
-  <si>
-    <t>Perugia 50.00%</t>
-  </si>
-  <si>
-    <t>Modena 42.90%</t>
-  </si>
-  <si>
-    <t>Cagliari 40.00%</t>
-  </si>
-  <si>
-    <t>Benevento 40.00%</t>
-  </si>
-  <si>
-    <t>Palermo 40.00%</t>
-  </si>
-  <si>
-    <t>Cittadella 35.70%</t>
-  </si>
-  <si>
-    <t>Ascoli 35.70%</t>
-  </si>
-  <si>
-    <t>Reggina 35.70%</t>
-  </si>
-  <si>
-    <t>Pisa 33.30%</t>
-  </si>
-  <si>
-    <t>Frosinone 33.30%</t>
-  </si>
-  <si>
-    <t>Ternana 33.30%</t>
-  </si>
-  <si>
-    <t>Bari 31.20%</t>
-  </si>
-  <si>
-    <t>Genoa 26.70%</t>
-  </si>
-  <si>
-    <t>Spal 26.70%</t>
-  </si>
-  <si>
-    <t>Sudtirol 25.00%</t>
-  </si>
-  <si>
-    <t>Cosenza 25.00%</t>
-  </si>
-  <si>
-    <t>Brescia 20.00%</t>
-  </si>
-  <si>
-    <t>Como 20.00%</t>
-  </si>
-  <si>
-    <t>Elche 46.70%</t>
-  </si>
-  <si>
-    <t>Espanyol 46.70%</t>
-  </si>
-  <si>
-    <t>Villarreal 43.80%</t>
-  </si>
-  <si>
-    <t>Cadiz 42.90%</t>
-  </si>
-  <si>
-    <t>Sevilla 42.90%</t>
-  </si>
-  <si>
-    <t>Valencia 42.90%</t>
-  </si>
-  <si>
-    <t>Atletico Madrid 38.50%</t>
-  </si>
-  <si>
-    <t>Athletic Bilbao 38.50%</t>
-  </si>
-  <si>
-    <t>Real Madrid 37.50%</t>
-  </si>
-  <si>
-    <t>Barcelona 35.70%</t>
-  </si>
-  <si>
-    <t>Celta Vigo 35.70%</t>
-  </si>
-  <si>
-    <t>Real Betis 31.20%</t>
-  </si>
-  <si>
-    <t>Real Sociedad 28.60%</t>
-  </si>
-  <si>
-    <t>Girona 28.60%</t>
-  </si>
-  <si>
-    <t>Osasuna 23.10%</t>
-  </si>
-  <si>
-    <t>Valladolid 21.40%</t>
-  </si>
-  <si>
-    <t>Almeria 20.00%</t>
-  </si>
-  <si>
-    <t>Rayo Vallecano 16.70%</t>
-  </si>
-  <si>
-    <t>Mallorca 15.40%</t>
-  </si>
-  <si>
-    <t>Getafe 7.70%</t>
-  </si>
-  <si>
-    <t>Tenerife 60.00%</t>
-  </si>
-  <si>
-    <t>Sporting Gijon 50.00%</t>
-  </si>
-  <si>
-    <t>UD Ibiza 42.90%</t>
-  </si>
-  <si>
-    <t>Oviedo 40.00%</t>
-  </si>
-  <si>
-    <t>Burgos 35.70%</t>
-  </si>
-  <si>
-    <t>Albacete Balompie 35.70%</t>
-  </si>
-  <si>
-    <t>FC Cartagena 35.70%</t>
-  </si>
-  <si>
-    <t>Racing Santander 33.30%</t>
-  </si>
-  <si>
-    <t>Eibar 33.30%</t>
-  </si>
-  <si>
-    <t>Levante 31.20%</t>
-  </si>
-  <si>
-    <t>Lugo 28.60%</t>
-  </si>
-  <si>
-    <t>Leganes 28.60%</t>
-  </si>
-  <si>
-    <t>Villarreal B 26.70%</t>
-  </si>
-  <si>
-    <t>CD Alaves 25.00%</t>
-  </si>
-  <si>
-    <t>Mirandes 23.10%</t>
-  </si>
-  <si>
-    <t>Huesca 21.40%</t>
-  </si>
-  <si>
-    <t>Las Palmas 21.40%</t>
-  </si>
-  <si>
-    <t>FC Andorra 21.40%</t>
-  </si>
-  <si>
-    <t>Granada 14.30%</t>
-  </si>
-  <si>
-    <t>Ponferradina 13.30%</t>
-  </si>
-  <si>
-    <t>Malaga 13.30%</t>
-  </si>
-  <si>
-    <t>Real Zaragoza 13.30%</t>
-  </si>
-  <si>
-    <t>Brondby 57.10%</t>
-  </si>
-  <si>
-    <t>AGF Aarhus 53.30%</t>
-  </si>
-  <si>
-    <t>FC Nordsjaelland 42.90%</t>
-  </si>
-  <si>
-    <t>Midtjylland 38.50%</t>
-  </si>
-  <si>
-    <t>Lyngby 37.50%</t>
-  </si>
-  <si>
-    <t>Odense BK 30.80%</t>
-  </si>
-  <si>
-    <t>Silkeborg IF 29.40%</t>
-  </si>
-  <si>
-    <t>AaB 28.60%</t>
-  </si>
-  <si>
-    <t>Viborg 28.60%</t>
-  </si>
-  <si>
-    <t>Randers FC 25.00%</t>
-  </si>
-  <si>
-    <t>FC Copenhagen 23.50%</t>
-  </si>
-  <si>
-    <t>AC Horsens 20.00%</t>
-  </si>
-  <si>
-    <t>PSV 60.00%</t>
-  </si>
-  <si>
-    <t>Feyenoord 47.10%</t>
-  </si>
-  <si>
-    <t>FC Groningen 43.80%</t>
-  </si>
-  <si>
-    <t>Willem II 42.90%</t>
-  </si>
-  <si>
-    <t>FC Twente 40.00%</t>
-  </si>
-  <si>
-    <t>PEC Zwolle 38.50%</t>
-  </si>
-  <si>
-    <t>FC Utrecht 35.70%</t>
-  </si>
-  <si>
-    <t>Heracles 33.30%</t>
-  </si>
-  <si>
-    <t>Fortuna Sittard 28.60%</t>
-  </si>
-  <si>
-    <t>ADO Den Haag 26.70%</t>
-  </si>
-  <si>
-    <t>VVV 26.70%</t>
-  </si>
-  <si>
-    <t>Heerenveen 25.00%</t>
-  </si>
-  <si>
-    <t>RKC 23.10%</t>
-  </si>
-  <si>
-    <t>Ajax 23.10%</t>
-  </si>
-  <si>
-    <t>FC Emmen 20.00%</t>
-  </si>
-  <si>
-    <t>AZ 20.00%</t>
-  </si>
-  <si>
-    <t>Vitesse 7.70%</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam 7.10%</t>
-  </si>
-  <si>
-    <t>St Gallen 60.00%</t>
-  </si>
-  <si>
-    <t>Young Boys 43.80%</t>
-  </si>
-  <si>
-    <t>FC Zurich 35.70%</t>
-  </si>
-  <si>
-    <t>FC Sion 35.70%</t>
-  </si>
-  <si>
-    <t>Lucerne 30.80%</t>
-  </si>
-  <si>
-    <t>Winterthur 28.60%</t>
-  </si>
-  <si>
-    <t>Basel 28.60%</t>
-  </si>
-  <si>
-    <t>Servette 28.60%</t>
-  </si>
-  <si>
-    <t>Grasshoppers 22.20%</t>
-  </si>
-  <si>
-    <t>Lugano 21.40%</t>
-  </si>
-  <si>
-    <t>Union Saint Gilloise 62.50%</t>
-  </si>
-  <si>
-    <t>KV Mechelen 57.10%</t>
-  </si>
-  <si>
-    <t>Club Brugge 53.80%</t>
-  </si>
-  <si>
-    <t>Gent 50.00%</t>
-  </si>
-  <si>
-    <t>KV Oostende 50.00%</t>
-  </si>
-  <si>
-    <t>Standard Liege 50.00%</t>
-  </si>
-  <si>
-    <t>Genk 46.70%</t>
-  </si>
-  <si>
-    <t>Sint-Truidense 42.90%</t>
-  </si>
-  <si>
-    <t>Antwerp 38.50%</t>
-  </si>
-  <si>
-    <t>Westerlo 37.50%</t>
-  </si>
-  <si>
-    <t>Anderlecht 36.40%</t>
-  </si>
-  <si>
-    <t>Cercle Brugge 33.30%</t>
-  </si>
-  <si>
-    <t>Eupen 28.60%</t>
-  </si>
-  <si>
-    <t>KV Kortrijk 26.70%</t>
-  </si>
-  <si>
-    <t>RFC Seraing 20.00%</t>
-  </si>
-  <si>
-    <t>OH Leuven 18.80%</t>
-  </si>
-  <si>
-    <t>Zulte-Waregem 14.30%</t>
-  </si>
-  <si>
-    <t>Charleroi 13.30%</t>
-  </si>
-  <si>
-    <t>FK Austria Vienna 56.20%</t>
-  </si>
-  <si>
-    <t>Rapid Vienna 52.90%</t>
-  </si>
-  <si>
-    <t>FC Salzburg 42.90%</t>
-  </si>
-  <si>
-    <t>SV Ried 37.50%</t>
-  </si>
-  <si>
-    <t>WSG Swarovski Tirol 37.50%</t>
-  </si>
-  <si>
-    <t>LASK Linz 35.70%</t>
-  </si>
-  <si>
-    <t>Hartberg 31.20%</t>
-  </si>
-  <si>
-    <t>SK Sturm Graz 30.80%</t>
-  </si>
-  <si>
-    <t>Austria Klagenfurt 28.60%</t>
-  </si>
-  <si>
-    <t>Austria Lustenau 23.50%</t>
-  </si>
-  <si>
-    <t>SCR Altach 23.10%</t>
-  </si>
-  <si>
-    <t>Wolfsberger AC 13.30%</t>
-  </si>
-  <si>
-    <t>Internacional 60.00%</t>
-  </si>
-  <si>
-    <t>Cruzeiro 57.10%</t>
-  </si>
-  <si>
-    <t>Fluminense 57.10%</t>
-  </si>
-  <si>
-    <t>Palmeiras 56.20%</t>
-  </si>
-  <si>
-    <t>Gremio 53.30%</t>
-  </si>
-  <si>
-    <t>Coritiba 46.70%</t>
-  </si>
-  <si>
-    <t>Cuiaba 42.90%</t>
-  </si>
-  <si>
-    <t>Sao Paulo 40.00%</t>
-  </si>
-  <si>
-    <t>Fortaleza FC 40.00%</t>
-  </si>
-  <si>
-    <t>Corinthians 40.00%</t>
-  </si>
-  <si>
-    <t>Flamengo 37.50%</t>
-  </si>
-  <si>
-    <t>Vasco Da Gama RJ 36.40%</t>
-  </si>
-  <si>
-    <t>EC Bahia 35.70%</t>
-  </si>
-  <si>
-    <t>America MG 33.30%</t>
-  </si>
-  <si>
-    <t>Bragantino 30.80%</t>
-  </si>
-  <si>
-    <t>Goias 26.70%</t>
-  </si>
-  <si>
-    <t>Botafogo RJ 25.00%</t>
-  </si>
-  <si>
-    <t>Atletico Mineiro 25.00%</t>
-  </si>
-  <si>
-    <t>Santos 23.10%</t>
-  </si>
-  <si>
-    <t>Athletico Paranaense 6.70%</t>
-  </si>
-  <si>
-    <t>Sporting 60.00%</t>
-  </si>
-  <si>
-    <t>Desportivo Chaves 53.30%</t>
-  </si>
-  <si>
-    <t>FC Porto 53.30%</t>
-  </si>
-  <si>
-    <t>Santa Clara 50.00%</t>
-  </si>
-  <si>
-    <t>Portimonense 46.70%</t>
-  </si>
-  <si>
-    <t>Estoril 46.70%</t>
-  </si>
-  <si>
-    <t>Famalicao 43.80%</t>
-  </si>
-  <si>
-    <t>Benfica 42.90%</t>
-  </si>
-  <si>
-    <t>Guimaraes 40.00%</t>
-  </si>
-  <si>
-    <t>Maritimo 40.00%</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira 35.70%</t>
-  </si>
-  <si>
-    <t>Braga 35.30%</t>
-  </si>
-  <si>
-    <t>Rio Ave 33.30%</t>
-  </si>
-  <si>
-    <t>Gil Vicente 28.60%</t>
-  </si>
-  <si>
-    <t>Casa Pia 26.70%</t>
-  </si>
-  <si>
-    <t>Boavista 23.10%</t>
-  </si>
-  <si>
-    <t>FC Arouca 14.30%</t>
-  </si>
-  <si>
-    <t>Vizela 14.30%</t>
-  </si>
-  <si>
-    <t>Nacional 60.00%</t>
-  </si>
-  <si>
-    <t>Moreirense 56.20%</t>
-  </si>
-  <si>
-    <t>UD Oliveirense 53.30%</t>
-  </si>
-  <si>
-    <t>Penafiel 53.30%</t>
-  </si>
-  <si>
-    <t>Torreense 46.70%</t>
-  </si>
-  <si>
-    <t>SC Farense 42.90%</t>
-  </si>
-  <si>
-    <t>Estrela Amadora 40.00%</t>
-  </si>
-  <si>
-    <t>FC Porto B 40.00%</t>
-  </si>
-  <si>
-    <t>Benfica B 33.30%</t>
-  </si>
-  <si>
-    <t>Feirense 33.30%</t>
-  </si>
-  <si>
-    <t>Leixoes 31.20%</t>
-  </si>
-  <si>
-    <t>Tondela 28.60%</t>
-  </si>
-  <si>
-    <t>CD Mafra 26.70%</t>
-  </si>
-  <si>
-    <t>Trofense 26.70%</t>
-  </si>
-  <si>
-    <t>SC Covilha 25.00%</t>
-  </si>
-  <si>
-    <t>Academico Viseu 25.00%</t>
-  </si>
-  <si>
-    <t>Belenenses SAD 14.30%</t>
-  </si>
-  <si>
-    <t>Vilafranquense 13.30%</t>
-  </si>
-  <si>
-    <t>Novorizontino 76.90%</t>
-  </si>
-  <si>
-    <t>Sport Recife 52.90%</t>
-  </si>
-  <si>
-    <t>Ponte Preta 46.70%</t>
-  </si>
-  <si>
-    <t>Atletico Goianiense 46.70%</t>
-  </si>
-  <si>
-    <t>ABC 46.20%</t>
-  </si>
-  <si>
-    <t>Vila Nova 43.80%</t>
-  </si>
-  <si>
-    <t>Mirassol 40.00%</t>
-  </si>
-  <si>
-    <t>Juventude 40.00%</t>
-  </si>
-  <si>
-    <t>Ceara 40.00%</t>
-  </si>
-  <si>
-    <t>Botafogo SP 38.50%</t>
-  </si>
-  <si>
-    <t>CRB 38.50%</t>
-  </si>
-  <si>
-    <t>Guarani SP 38.50%</t>
-  </si>
-  <si>
-    <t>Sampaio Correa 37.50%</t>
-  </si>
-  <si>
-    <t>Londrina 35.70%</t>
-  </si>
-  <si>
-    <t>Criciuma 35.70%</t>
-  </si>
-  <si>
-    <t>Chapecoense 33.30%</t>
-  </si>
-  <si>
-    <t>Ituano 28.60%</t>
-  </si>
-  <si>
-    <t>Vitoria 26.70%</t>
-  </si>
-  <si>
-    <t>Avai 25.00%</t>
-  </si>
-  <si>
-    <t>Tombense 25.00%</t>
-  </si>
-  <si>
-    <t>Al Hilal Riyadh 57.10%</t>
-  </si>
-  <si>
-    <t>Al Ittihad Jeddah 46.70%</t>
-  </si>
-  <si>
-    <t>Al Wahda Mecca 46.70%</t>
-  </si>
-  <si>
-    <t>Al-Nassr Riyadh 37.50%</t>
-  </si>
-  <si>
-    <t>Al Adalh 35.70%</t>
-  </si>
-  <si>
-    <t>Al Fateh SC 35.70%</t>
-  </si>
-  <si>
-    <t>Al Shabab Riyadh 35.70%</t>
-  </si>
-  <si>
-    <t>Al Taawon Buraidah 33.30%</t>
-  </si>
-  <si>
-    <t>Abha 28.60%</t>
-  </si>
-  <si>
-    <t>Al Feiha 26.70%</t>
-  </si>
-  <si>
-    <t>Al Ittifaq Dammam 23.10%</t>
-  </si>
-  <si>
-    <t>Al Khaleej Saihat 21.40%</t>
-  </si>
-  <si>
-    <t>Al Batin 21.40%</t>
-  </si>
-  <si>
-    <t>Al Taee 20.00%</t>
-  </si>
-  <si>
-    <t>Al Raed 20.00%</t>
-  </si>
-  <si>
-    <t>Damac FC 18.80%</t>
-  </si>
-  <si>
-    <t>Al Qadisiya Al Khubar 50.00%</t>
-  </si>
-  <si>
-    <t>Al-Arabi Al-Saudi 46.70%</t>
-  </si>
-  <si>
-    <t>Al Akhdoud 46.20%</t>
-  </si>
-  <si>
-    <t>Ohod Madinah 46.20%</t>
-  </si>
-  <si>
-    <t>Al Kholood 41.70%</t>
-  </si>
-  <si>
-    <t>Al Jabalain 35.70%</t>
-  </si>
-  <si>
-    <t>Najran SC 35.70%</t>
-  </si>
-  <si>
-    <t>Al Shoalah 33.30%</t>
-  </si>
-  <si>
-    <t>Al Hazm 33.30%</t>
-  </si>
-  <si>
-    <t>Al Faisaly Harmah 33.30%</t>
-  </si>
-  <si>
-    <t>Al Orubah 33.30%</t>
-  </si>
-  <si>
-    <t>Al Riyadh 30.80%</t>
-  </si>
-  <si>
-    <t>Al Ain FC 30.80%</t>
-  </si>
-  <si>
-    <t>Al Sahel 28.60%</t>
-  </si>
-  <si>
-    <t>Al Qaisoma 28.60%</t>
-  </si>
-  <si>
-    <t>Al Ahli Jeddah 28.60%</t>
-  </si>
-  <si>
-    <t>Jeddah Club 21.40%</t>
-  </si>
-  <si>
-    <t>Hajer 21.40%</t>
-  </si>
-  <si>
-    <t>Metz 53.80%</t>
-  </si>
-  <si>
-    <t>Amiens 50.00%</t>
-  </si>
-  <si>
-    <t>Caen 42.90%</t>
-  </si>
-  <si>
-    <t>Dijon 42.90%</t>
-  </si>
-  <si>
-    <t>Guingamp 42.90%</t>
-  </si>
-  <si>
-    <t>Sochaux 41.70%</t>
-  </si>
-  <si>
-    <t>Valenciennes 40.00%</t>
-  </si>
-  <si>
-    <t>US Quevilly 40.00%</t>
-  </si>
-  <si>
-    <t>SC Bastia 40.00%</t>
-  </si>
-  <si>
-    <t>Laval 33.30%</t>
-  </si>
-  <si>
-    <t>St Etienne 31.20%</t>
-  </si>
-  <si>
-    <t>Rodez 30.80%</t>
-  </si>
-  <si>
-    <t>Le Havre 28.60%</t>
-  </si>
-  <si>
-    <t>Bordeaux 28.60%</t>
-  </si>
-  <si>
-    <t>Niort 23.10%</t>
-  </si>
-  <si>
-    <t>Annecy 23.10%</t>
-  </si>
-  <si>
-    <t>Pau 20.00%</t>
-  </si>
-  <si>
-    <t>Nimes 20.00%</t>
-  </si>
-  <si>
-    <t>Paris FC 13.30%</t>
-  </si>
-  <si>
-    <t>Grenoble 7.10%</t>
-  </si>
-  <si>
-    <t>Birmingham 57.10%</t>
-  </si>
-  <si>
-    <t>Bristol City 56.20%</t>
-  </si>
-  <si>
-    <t>West Brom 53.80%</t>
-  </si>
-  <si>
-    <t>Watford 53.30%</t>
-  </si>
-  <si>
-    <t>Coventry 47.10%</t>
-  </si>
-  <si>
-    <t>Norwich 43.80%</t>
-  </si>
-  <si>
-    <t>Blackburn 42.90%</t>
-  </si>
-  <si>
-    <t>Blackpool 40.00%</t>
-  </si>
-  <si>
-    <t>Burnley 35.70%</t>
-  </si>
-  <si>
-    <t>Luton 35.70%</t>
-  </si>
-  <si>
-    <t>Rotherham 33.30%</t>
-  </si>
-  <si>
-    <t>Sheff Utd 33.30%</t>
-  </si>
-  <si>
-    <t>Stoke 31.20%</t>
-  </si>
-  <si>
-    <t>Reading 26.70%</t>
-  </si>
-  <si>
-    <t>Hull 26.70%</t>
-  </si>
-  <si>
-    <t>Wigan 21.40%</t>
-  </si>
-  <si>
-    <t>Sunderland 20.00%</t>
-  </si>
-  <si>
-    <t>QPR 18.80%</t>
-  </si>
-  <si>
-    <t>Swansea 14.30%</t>
-  </si>
-  <si>
-    <t>Huddersfield 14.30%</t>
-  </si>
-  <si>
-    <t>Middlesbrough 13.30%</t>
-  </si>
-  <si>
-    <t>Preston 12.50%</t>
-  </si>
-  <si>
-    <t>Millwall 6.70%</t>
-  </si>
-  <si>
-    <t>Cardiff 6.70%</t>
-  </si>
-  <si>
-    <t>Beitar Jerusalem 47.10%</t>
-  </si>
-  <si>
-    <t>Maccabi Haifa 46.70%</t>
-  </si>
-  <si>
-    <t>Hapoel Beer Sheva 46.20%</t>
-  </si>
-  <si>
-    <t>Maccabi Tel Aviv 33.30%</t>
-  </si>
-  <si>
-    <t>Maccabi Netanya 31.20%</t>
-  </si>
-  <si>
-    <t>Bnei Sakhnin 30.80%</t>
-  </si>
-  <si>
-    <t>Sektzia Nes Tziona 28.60%</t>
-  </si>
-  <si>
-    <t>Hapoel Tel-Aviv 28.60%</t>
-  </si>
-  <si>
-    <t>Hapoel Hadera 26.70%</t>
-  </si>
-  <si>
-    <t>Hapoel Haifa 21.40%</t>
-  </si>
-  <si>
-    <t>Hapoel Ironi Kiryat Shmona 20.00%</t>
-  </si>
-  <si>
-    <t>Hapoel Jerusalem FC 13.30%</t>
-  </si>
-  <si>
-    <t>Maccabi Bnei Raina 7.70%</t>
-  </si>
-  <si>
-    <t>MS Ashdod 6.70%</t>
-  </si>
-  <si>
-    <t>Deportivo Cali 60.00%</t>
-  </si>
-  <si>
-    <t>Junior 53.80%</t>
-  </si>
-  <si>
-    <t>Once Caldas 50.00%</t>
-  </si>
-  <si>
-    <t>Union Magdalena 50.00%</t>
-  </si>
-  <si>
-    <t>Envigado FC 46.70%</t>
-  </si>
-  <si>
-    <t>Millonarios 43.80%</t>
-  </si>
-  <si>
-    <t>Rionegro Aguilas 42.90%</t>
-  </si>
-  <si>
-    <t>Jaguares de Cordoba 40.00%</t>
-  </si>
-  <si>
-    <t>Atletico Huila 35.70%</t>
-  </si>
-  <si>
-    <t>La Equidad 33.30%</t>
-  </si>
-  <si>
-    <t>Deportivo Pereira 33.30%</t>
-  </si>
-  <si>
-    <t>Independiente Santa Fe 30.80%</t>
-  </si>
-  <si>
-    <t>Alianza Petrolera 26.70%</t>
-  </si>
-  <si>
-    <t>Deportivo Pasto 26.70%</t>
-  </si>
-  <si>
-    <t>Atletico Bucaramanga 25.00%</t>
-  </si>
-  <si>
-    <t>Atletico Nacional 23.10%</t>
-  </si>
-  <si>
-    <t>Independiente Medellin 18.80%</t>
-  </si>
-  <si>
-    <t>Deportes Tolima 16.70%</t>
-  </si>
-  <si>
-    <t>America de Cali 15.40%</t>
-  </si>
-  <si>
-    <t>Boyaca Chico 13.30%</t>
-  </si>
-  <si>
-    <t>Atletico Fenix Montevideo 41.70%</t>
-  </si>
-  <si>
-    <t>Racing Club de Montevideo 40.00%</t>
-  </si>
-  <si>
-    <t>La Luz 35.70%</t>
-  </si>
-  <si>
-    <t>Torque 35.70%</t>
-  </si>
-  <si>
-    <t>Penarol 33.30%</t>
-  </si>
-  <si>
-    <t>CA River Plate 31.20%</t>
-  </si>
-  <si>
-    <t>Cerro 28.60%</t>
-  </si>
-  <si>
-    <t>Nacional De Football 28.60%</t>
-  </si>
-  <si>
-    <t>Danubio 26.70%</t>
-  </si>
-  <si>
-    <t>Montevideo Wanderers 26.70%</t>
-  </si>
-  <si>
-    <t>Liverpool Montevideo 25.00%</t>
-  </si>
-  <si>
-    <t>Plaza Colonia 25.00%</t>
-  </si>
-  <si>
-    <t>Deportivo Maldonado 23.10%</t>
-  </si>
-  <si>
-    <t>Cerro Largo 23.10%</t>
-  </si>
-  <si>
-    <t>Defensor Sporting 16.70%</t>
-  </si>
-  <si>
-    <t>Boston River 15.40%</t>
+    <t>Arsenal 0.00%</t>
+  </si>
+  <si>
+    <t>Southampton 0.00%</t>
+  </si>
+  <si>
+    <t>Brighton 0.00%</t>
+  </si>
+  <si>
+    <t>Crystal Palace 0.00%</t>
+  </si>
+  <si>
+    <t>West Ham 0.00%</t>
+  </si>
+  <si>
+    <t>Brentford 0.00%</t>
+  </si>
+  <si>
+    <t>Newcastle 0.00%</t>
+  </si>
+  <si>
+    <t>Everton 0.00%</t>
+  </si>
+  <si>
+    <t>Aston Villa 0.00%</t>
+  </si>
+  <si>
+    <t>Chelsea 0.00%</t>
+  </si>
+  <si>
+    <t>Nottm Forest 0.00%</t>
+  </si>
+  <si>
+    <t>Leeds 0.00%</t>
+  </si>
+  <si>
+    <t>Bournemouth 0.00%</t>
+  </si>
+  <si>
+    <t>Liverpool 0.00%</t>
+  </si>
+  <si>
+    <t>Man Utd 0.00%</t>
+  </si>
+  <si>
+    <t>Tottenham 0.00%</t>
+  </si>
+  <si>
+    <t>Wolverhampton 0.00%</t>
+  </si>
+  <si>
+    <t>Leicester 0.00%</t>
+  </si>
+  <si>
+    <t>Fulham 0.00%</t>
+  </si>
+  <si>
+    <t>Man City 0.00%</t>
+  </si>
+  <si>
+    <t>Bradford 0.00%</t>
+  </si>
+  <si>
+    <t>Crawley Town 0.00%</t>
+  </si>
+  <si>
+    <t>Grimsby 0.00%</t>
+  </si>
+  <si>
+    <t>Newport County 0.00%</t>
+  </si>
+  <si>
+    <t>Crewe 0.00%</t>
+  </si>
+  <si>
+    <t>Stockport 0.00%</t>
+  </si>
+  <si>
+    <t>Mansfield 0.00%</t>
+  </si>
+  <si>
+    <t>Harrogate Town 0.00%</t>
+  </si>
+  <si>
+    <t>Leyton Orient 0.00%</t>
+  </si>
+  <si>
+    <t>Rochdale 0.00%</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon 0.00%</t>
+  </si>
+  <si>
+    <t>Northampton 0.00%</t>
+  </si>
+  <si>
+    <t>Swindon 0.00%</t>
+  </si>
+  <si>
+    <t>Doncaster 0.00%</t>
+  </si>
+  <si>
+    <t>Salford City 0.00%</t>
+  </si>
+  <si>
+    <t>Stevenage 0.00%</t>
+  </si>
+  <si>
+    <t>Carlisle 0.00%</t>
+  </si>
+  <si>
+    <t>Hartlepool 0.00%</t>
+  </si>
+  <si>
+    <t>Colchester 0.00%</t>
+  </si>
+  <si>
+    <t>Walsall 0.00%</t>
+  </si>
+  <si>
+    <t>Tranmere 0.00%</t>
+  </si>
+  <si>
+    <t>Gillingham 0.00%</t>
+  </si>
+  <si>
+    <t>Barrow 0.00%</t>
+  </si>
+  <si>
+    <t>Sutton Utd 0.00%</t>
+  </si>
+  <si>
+    <t>Heidenheim 0.00%</t>
+  </si>
+  <si>
+    <t>Eintracht Braunschweig 0.00%</t>
+  </si>
+  <si>
+    <t>Arminia Bielefeld 0.00%</t>
+  </si>
+  <si>
+    <t>Paderborn 0.00%</t>
+  </si>
+  <si>
+    <t>Karlsruher SC 0.00%</t>
+  </si>
+  <si>
+    <t>Hannover 96 0.00%</t>
+  </si>
+  <si>
+    <t>Nurnberg 0.00%</t>
+  </si>
+  <si>
+    <t>Fortuna Dusseldorf 0.00%</t>
+  </si>
+  <si>
+    <t>Magdeburg 0.00%</t>
+  </si>
+  <si>
+    <t>Sandhausen 0.00%</t>
+  </si>
+  <si>
+    <t>Greuther Furth 0.00%</t>
+  </si>
+  <si>
+    <t>Hamburg 0.00%</t>
+  </si>
+  <si>
+    <t>St Pauli 0.00%</t>
+  </si>
+  <si>
+    <t>Holstein Kiel 0.00%</t>
+  </si>
+  <si>
+    <t>Jahn Regensburg 0.00%</t>
+  </si>
+  <si>
+    <t>Darmstadt 0.00%</t>
+  </si>
+  <si>
+    <t>Kaiserslautern 0.00%</t>
+  </si>
+  <si>
+    <t>Hansa Rostock 0.00%</t>
+  </si>
+  <si>
+    <t>AC Milan 0.00%</t>
+  </si>
+  <si>
+    <t>Cremonese 0.00%</t>
+  </si>
+  <si>
+    <t>Lazio 0.00%</t>
+  </si>
+  <si>
+    <t>Sampdoria 0.00%</t>
+  </si>
+  <si>
+    <t>Monza 0.00%</t>
+  </si>
+  <si>
+    <t>Juventus 0.00%</t>
+  </si>
+  <si>
+    <t>Inter Milan 0.00%</t>
+  </si>
+  <si>
+    <t>Verona 0.00%</t>
+  </si>
+  <si>
+    <t>Atalanta 0.00%</t>
+  </si>
+  <si>
+    <t>Lecce 0.00%</t>
+  </si>
+  <si>
+    <t>Fiorentina 0.00%</t>
+  </si>
+  <si>
+    <t>Roma 0.00%</t>
+  </si>
+  <si>
+    <t>Udinese 0.00%</t>
+  </si>
+  <si>
+    <t>Spezia 0.00%</t>
+  </si>
+  <si>
+    <t>Napoli 0.00%</t>
+  </si>
+  <si>
+    <t>Torino 0.00%</t>
+  </si>
+  <si>
+    <t>Sassuolo 0.00%</t>
+  </si>
+  <si>
+    <t>Empoli 0.00%</t>
+  </si>
+  <si>
+    <t>Bologna 0.00%</t>
+  </si>
+  <si>
+    <t>Salernitana 0.00%</t>
+  </si>
+  <si>
+    <t>Genoa 0.00%</t>
+  </si>
+  <si>
+    <t>Cittadella 0.00%</t>
+  </si>
+  <si>
+    <t>Spal 0.00%</t>
+  </si>
+  <si>
+    <t>Sudtirol 0.00%</t>
+  </si>
+  <si>
+    <t>Cagliari 0.00%</t>
+  </si>
+  <si>
+    <t>Ascoli 0.00%</t>
+  </si>
+  <si>
+    <t>Parma 0.00%</t>
+  </si>
+  <si>
+    <t>Bari 0.00%</t>
+  </si>
+  <si>
+    <t>Benevento 0.00%</t>
+  </si>
+  <si>
+    <t>Brescia 0.00%</t>
+  </si>
+  <si>
+    <t>Modena 0.00%</t>
+  </si>
+  <si>
+    <t>Venezia 0.00%</t>
+  </si>
+  <si>
+    <t>Pisa 0.00%</t>
+  </si>
+  <si>
+    <t>Frosinone 0.00%</t>
+  </si>
+  <si>
+    <t>Perugia 0.00%</t>
+  </si>
+  <si>
+    <t>Ternana 0.00%</t>
+  </si>
+  <si>
+    <t>Reggina 0.00%</t>
+  </si>
+  <si>
+    <t>Palermo 0.00%</t>
+  </si>
+  <si>
+    <t>Cosenza 0.00%</t>
+  </si>
+  <si>
+    <t>Como 0.00%</t>
+  </si>
+  <si>
+    <t>Almeria 0.00%</t>
+  </si>
+  <si>
+    <t>Real Sociedad 0.00%</t>
+  </si>
+  <si>
+    <t>Cadiz 0.00%</t>
+  </si>
+  <si>
+    <t>Villarreal 0.00%</t>
+  </si>
+  <si>
+    <t>Valladolid 0.00%</t>
+  </si>
+  <si>
+    <t>Elche 0.00%</t>
+  </si>
+  <si>
+    <t>Real Betis 0.00%</t>
+  </si>
+  <si>
+    <t>Atletico Madrid 0.00%</t>
+  </si>
+  <si>
+    <t>Osasuna 0.00%</t>
+  </si>
+  <si>
+    <t>Athletic Bilbao 0.00%</t>
+  </si>
+  <si>
+    <t>Sevilla 0.00%</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano 0.00%</t>
+  </si>
+  <si>
+    <t>Barcelona 0.00%</t>
+  </si>
+  <si>
+    <t>Espanyol 0.00%</t>
+  </si>
+  <si>
+    <t>Valencia 0.00%</t>
+  </si>
+  <si>
+    <t>Girona 0.00%</t>
+  </si>
+  <si>
+    <t>Celta Vigo 0.00%</t>
+  </si>
+  <si>
+    <t>Mallorca 0.00%</t>
+  </si>
+  <si>
+    <t>Getafe 0.00%</t>
+  </si>
+  <si>
+    <t>Real Madrid 0.00%</t>
+  </si>
+  <si>
+    <t>Lugo 0.00%</t>
+  </si>
+  <si>
+    <t>Levante 0.00%</t>
+  </si>
+  <si>
+    <t>Burgos 0.00%</t>
+  </si>
+  <si>
+    <t>Ponferradina 0.00%</t>
+  </si>
+  <si>
+    <t>Malaga 0.00%</t>
+  </si>
+  <si>
+    <t>Leganes 0.00%</t>
+  </si>
+  <si>
+    <t>Real Zaragoza 0.00%</t>
+  </si>
+  <si>
+    <t>Albacete Balompie 0.00%</t>
+  </si>
+  <si>
+    <t>Mirandes 0.00%</t>
+  </si>
+  <si>
+    <t>Sporting Gijon 0.00%</t>
+  </si>
+  <si>
+    <t>Huesca 0.00%</t>
+  </si>
+  <si>
+    <t>FC Cartagena 0.00%</t>
+  </si>
+  <si>
+    <t>UD Ibiza 0.00%</t>
+  </si>
+  <si>
+    <t>Racing Santander 0.00%</t>
+  </si>
+  <si>
+    <t>Oviedo 0.00%</t>
+  </si>
+  <si>
+    <t>Tenerife 0.00%</t>
+  </si>
+  <si>
+    <t>CD Alaves 0.00%</t>
+  </si>
+  <si>
+    <t>Las Palmas 0.00%</t>
+  </si>
+  <si>
+    <t>Eibar 0.00%</t>
+  </si>
+  <si>
+    <t>FC Andorra 0.00%</t>
+  </si>
+  <si>
+    <t>Granada 0.00%</t>
+  </si>
+  <si>
+    <t>Villarreal B 0.00%</t>
+  </si>
+  <si>
+    <t>Brondby 0.00%</t>
+  </si>
+  <si>
+    <t>Lyngby 0.00%</t>
+  </si>
+  <si>
+    <t>FC Copenhagen 0.00%</t>
+  </si>
+  <si>
+    <t>FC Nordsjaelland 0.00%</t>
+  </si>
+  <si>
+    <t>AaB 0.00%</t>
+  </si>
+  <si>
+    <t>AGF Aarhus 0.00%</t>
+  </si>
+  <si>
+    <t>Viborg 0.00%</t>
+  </si>
+  <si>
+    <t>Odense BK 0.00%</t>
+  </si>
+  <si>
+    <t>AC Horsens 0.00%</t>
+  </si>
+  <si>
+    <t>Silkeborg IF 0.00%</t>
+  </si>
+  <si>
+    <t>Midtjylland 0.00%</t>
+  </si>
+  <si>
+    <t>Randers FC 0.00%</t>
+  </si>
+  <si>
+    <t>FC Groningen 0.00%</t>
+  </si>
+  <si>
+    <t>Fortuna Sittard 0.00%</t>
+  </si>
+  <si>
+    <t>PSV 0.00%</t>
+  </si>
+  <si>
+    <t>FC Emmen 0.00%</t>
+  </si>
+  <si>
+    <t>Feyenoord 0.00%</t>
+  </si>
+  <si>
+    <t>RKC 0.00%</t>
+  </si>
+  <si>
+    <t>ADO Den Haag 0.00%</t>
+  </si>
+  <si>
+    <t>Willem II 0.00%</t>
+  </si>
+  <si>
+    <t>Heerenveen 0.00%</t>
+  </si>
+  <si>
+    <t>VVV 0.00%</t>
+  </si>
+  <si>
+    <t>PEC Zwolle 0.00%</t>
+  </si>
+  <si>
+    <t>Heracles 0.00%</t>
+  </si>
+  <si>
+    <t>Vitesse 0.00%</t>
+  </si>
+  <si>
+    <t>FC Twente 0.00%</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam 0.00%</t>
+  </si>
+  <si>
+    <t>FC Utrecht 0.00%</t>
+  </si>
+  <si>
+    <t>Ajax 0.00%</t>
+  </si>
+  <si>
+    <t>AZ 0.00%</t>
+  </si>
+  <si>
+    <t>Young Boys 0.00%</t>
+  </si>
+  <si>
+    <t>Winterthur 0.00%</t>
+  </si>
+  <si>
+    <t>Grasshoppers 0.00%</t>
+  </si>
+  <si>
+    <t>St Gallen 0.00%</t>
+  </si>
+  <si>
+    <t>FC Zurich 0.00%</t>
+  </si>
+  <si>
+    <t>FC Sion 0.00%</t>
+  </si>
+  <si>
+    <t>Basel 0.00%</t>
+  </si>
+  <si>
+    <t>Lugano 0.00%</t>
+  </si>
+  <si>
+    <t>Servette 0.00%</t>
+  </si>
+  <si>
+    <t>Lucerne 0.00%</t>
+  </si>
+  <si>
+    <t>Gent 0.00%</t>
+  </si>
+  <si>
+    <t>KV Kortrijk 0.00%</t>
+  </si>
+  <si>
+    <t>Union Saint Gilloise 0.00%</t>
+  </si>
+  <si>
+    <t>Charleroi 0.00%</t>
+  </si>
+  <si>
+    <t>Club Brugge 0.00%</t>
+  </si>
+  <si>
+    <t>Westerlo 0.00%</t>
+  </si>
+  <si>
+    <t>KV Mechelen 0.00%</t>
+  </si>
+  <si>
+    <t>Sint-Truidense 0.00%</t>
+  </si>
+  <si>
+    <t>RFC Seraing 0.00%</t>
+  </si>
+  <si>
+    <t>Eupen 0.00%</t>
+  </si>
+  <si>
+    <t>OH Leuven 0.00%</t>
+  </si>
+  <si>
+    <t>Genk 0.00%</t>
+  </si>
+  <si>
+    <t>KV Oostende 0.00%</t>
+  </si>
+  <si>
+    <t>Antwerp 0.00%</t>
+  </si>
+  <si>
+    <t>Standard Liege 0.00%</t>
+  </si>
+  <si>
+    <t>Anderlecht 0.00%</t>
+  </si>
+  <si>
+    <t>Cercle Brugge 0.00%</t>
+  </si>
+  <si>
+    <t>Zulte-Waregem 0.00%</t>
+  </si>
+  <si>
+    <t>FC Salzburg 0.00%</t>
+  </si>
+  <si>
+    <t>LASK Linz 0.00%</t>
+  </si>
+  <si>
+    <t>Austria Klagenfurt 0.00%</t>
+  </si>
+  <si>
+    <t>Austria Lustenau 0.00%</t>
+  </si>
+  <si>
+    <t>SV Ried 0.00%</t>
+  </si>
+  <si>
+    <t>FK Austria Vienna 0.00%</t>
+  </si>
+  <si>
+    <t>Wolfsberger AC 0.00%</t>
+  </si>
+  <si>
+    <t>SCR Altach 0.00%</t>
+  </si>
+  <si>
+    <t>SK Sturm Graz 0.00%</t>
+  </si>
+  <si>
+    <t>WSG Swarovski Tirol 0.00%</t>
+  </si>
+  <si>
+    <t>Hartberg 0.00%</t>
+  </si>
+  <si>
+    <t>Rapid Vienna 0.00%</t>
+  </si>
+  <si>
+    <t>Goias 0.00%</t>
+  </si>
+  <si>
+    <t>Athletico Paranaense 0.00%</t>
+  </si>
+  <si>
+    <t>Flamengo 0.00%</t>
+  </si>
+  <si>
+    <t>Cuiaba 0.00%</t>
+  </si>
+  <si>
+    <t>Sao Paulo 0.00%</t>
+  </si>
+  <si>
+    <t>Coritiba 0.00%</t>
+  </si>
+  <si>
+    <t>Fortaleza FC 0.00%</t>
+  </si>
+  <si>
+    <t>Cruzeiro 0.00%</t>
+  </si>
+  <si>
+    <t>Gremio 0.00%</t>
+  </si>
+  <si>
+    <t>Palmeiras 0.00%</t>
+  </si>
+  <si>
+    <t>America MG 0.00%</t>
+  </si>
+  <si>
+    <t>Fluminense 0.00%</t>
+  </si>
+  <si>
+    <t>EC Bahia 0.00%</t>
+  </si>
+  <si>
+    <t>Botafogo RJ 0.00%</t>
+  </si>
+  <si>
+    <t>Vasco Da Gama RJ 0.00%</t>
+  </si>
+  <si>
+    <t>Corinthians 0.00%</t>
+  </si>
+  <si>
+    <t>Bragantino 0.00%</t>
+  </si>
+  <si>
+    <t>Santos 0.00%</t>
+  </si>
+  <si>
+    <t>Atletico Mineiro 0.00%</t>
+  </si>
+  <si>
+    <t>Internacional 0.00%</t>
+  </si>
+  <si>
+    <t>Casa Pia 0.00%</t>
+  </si>
+  <si>
+    <t>Guimaraes 0.00%</t>
+  </si>
+  <si>
+    <t>FC Arouca 0.00%</t>
+  </si>
+  <si>
+    <t>Santa Clara 0.00%</t>
+  </si>
+  <si>
+    <t>Braga 0.00%</t>
+  </si>
+  <si>
+    <t>Desportivo Chaves 0.00%</t>
+  </si>
+  <si>
+    <t>Gil Vicente 0.00%</t>
+  </si>
+  <si>
+    <t>Benfica 0.00%</t>
+  </si>
+  <si>
+    <t>Portimonense 0.00%</t>
+  </si>
+  <si>
+    <t>Boavista 0.00%</t>
+  </si>
+  <si>
+    <t>Estoril 0.00%</t>
+  </si>
+  <si>
+    <t>Maritimo 0.00%</t>
+  </si>
+  <si>
+    <t>Famalicao 0.00%</t>
+  </si>
+  <si>
+    <t>Vizela 0.00%</t>
+  </si>
+  <si>
+    <t>Sporting 0.00%</t>
+  </si>
+  <si>
+    <t>FC Porto 0.00%</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira 0.00%</t>
+  </si>
+  <si>
+    <t>Rio Ave 0.00%</t>
+  </si>
+  <si>
+    <t>Benfica B 0.00%</t>
+  </si>
+  <si>
+    <t>CD Mafra 0.00%</t>
+  </si>
+  <si>
+    <t>SC Covilha 0.00%</t>
+  </si>
+  <si>
+    <t>Moreirense 0.00%</t>
+  </si>
+  <si>
+    <t>Estrela Amadora 0.00%</t>
+  </si>
+  <si>
+    <t>Belenenses SAD 0.00%</t>
+  </si>
+  <si>
+    <t>Academico Viseu 0.00%</t>
+  </si>
+  <si>
+    <t>UD Oliveirense 0.00%</t>
+  </si>
+  <si>
+    <t>SC Farense 0.00%</t>
+  </si>
+  <si>
+    <t>Leixoes 0.00%</t>
+  </si>
+  <si>
+    <t>Vilafranquense 0.00%</t>
+  </si>
+  <si>
+    <t>Feirense 0.00%</t>
+  </si>
+  <si>
+    <t>Nacional 0.00%</t>
+  </si>
+  <si>
+    <t>Torreense 0.00%</t>
+  </si>
+  <si>
+    <t>Trofense 0.00%</t>
+  </si>
+  <si>
+    <t>FC Porto B 0.00%</t>
+  </si>
+  <si>
+    <t>Tondela 0.00%</t>
+  </si>
+  <si>
+    <t>Penafiel 0.00%</t>
+  </si>
+  <si>
+    <t>Sampaio Correa 0.00%</t>
+  </si>
+  <si>
+    <t>Avai 0.00%</t>
+  </si>
+  <si>
+    <t>Ituano 0.00%</t>
+  </si>
+  <si>
+    <t>Botafogo SP 0.00%</t>
+  </si>
+  <si>
+    <t>Tombense 0.00%</t>
+  </si>
+  <si>
+    <t>Londrina 0.00%</t>
+  </si>
+  <si>
+    <t>CRB 0.00%</t>
+  </si>
+  <si>
+    <t>Sport Recife 0.00%</t>
+  </si>
+  <si>
+    <t>Vila Nova 0.00%</t>
+  </si>
+  <si>
+    <t>Mirassol 0.00%</t>
+  </si>
+  <si>
+    <t>Ponte Preta 0.00%</t>
+  </si>
+  <si>
+    <t>Juventude 0.00%</t>
+  </si>
+  <si>
+    <t>Vitoria 0.00%</t>
+  </si>
+  <si>
+    <t>ABC 0.00%</t>
+  </si>
+  <si>
+    <t>Novorizontino 0.00%</t>
+  </si>
+  <si>
+    <t>Chapecoense 0.00%</t>
+  </si>
+  <si>
+    <t>Ceara 0.00%</t>
+  </si>
+  <si>
+    <t>Guarani SP 0.00%</t>
+  </si>
+  <si>
+    <t>Atletico Goianiense 0.00%</t>
+  </si>
+  <si>
+    <t>Criciuma 0.00%</t>
+  </si>
+  <si>
+    <t>Abha 0.00%</t>
+  </si>
+  <si>
+    <t>Al Khaleej Saihat 0.00%</t>
+  </si>
+  <si>
+    <t>Al-Nassr Riyadh 0.00%</t>
+  </si>
+  <si>
+    <t>Al Taee 0.00%</t>
+  </si>
+  <si>
+    <t>Al Adalh 0.00%</t>
+  </si>
+  <si>
+    <t>Damac FC 0.00%</t>
+  </si>
+  <si>
+    <t>Al Fateh SC 0.00%</t>
+  </si>
+  <si>
+    <t>Al Raed 0.00%</t>
+  </si>
+  <si>
+    <t>Al Hilal Riyadh 0.00%</t>
+  </si>
+  <si>
+    <t>Al Shabab Riyadh 0.00%</t>
+  </si>
+  <si>
+    <t>Al Taawon Buraidah 0.00%</t>
+  </si>
+  <si>
+    <t>Al Ittifaq Dammam 0.00%</t>
+  </si>
+  <si>
+    <t>Al Ittihad Jeddah 0.00%</t>
+  </si>
+  <si>
+    <t>Al Wahda Mecca 0.00%</t>
+  </si>
+  <si>
+    <t>Al Feiha 0.00%</t>
+  </si>
+  <si>
+    <t>Al Batin 0.00%</t>
+  </si>
+  <si>
+    <t>Al Akhdoud 0.00%</t>
+  </si>
+  <si>
+    <t>Jeddah Club 0.00%</t>
+  </si>
+  <si>
+    <t>Al Kholood 0.00%</t>
+  </si>
+  <si>
+    <t>Al Jabalain 0.00%</t>
+  </si>
+  <si>
+    <t>Hajer 0.00%</t>
+  </si>
+  <si>
+    <t>Al-Arabi Al-Saudi 0.00%</t>
+  </si>
+  <si>
+    <t>Al Shoalah 0.00%</t>
+  </si>
+  <si>
+    <t>Al Hazm 0.00%</t>
+  </si>
+  <si>
+    <t>Al Faisaly Harmah 0.00%</t>
+  </si>
+  <si>
+    <t>Al Riyadh 0.00%</t>
+  </si>
+  <si>
+    <t>Al Qadisiya Al Khubar 0.00%</t>
+  </si>
+  <si>
+    <t>Al Ain FC 0.00%</t>
+  </si>
+  <si>
+    <t>Al Orubah 0.00%</t>
+  </si>
+  <si>
+    <t>Al Sahel 0.00%</t>
+  </si>
+  <si>
+    <t>Najran SC 0.00%</t>
+  </si>
+  <si>
+    <t>Ohod Madinah 0.00%</t>
+  </si>
+  <si>
+    <t>Al Qaisoma 0.00%</t>
+  </si>
+  <si>
+    <t>Al Ahli Jeddah 0.00%</t>
+  </si>
+  <si>
+    <t>Valenciennes 0.00%</t>
+  </si>
+  <si>
+    <t>Laval 0.00%</t>
+  </si>
+  <si>
+    <t>Pau 0.00%</t>
+  </si>
+  <si>
+    <t>Le Havre 0.00%</t>
+  </si>
+  <si>
+    <t>Metz 0.00%</t>
+  </si>
+  <si>
+    <t>Caen 0.00%</t>
+  </si>
+  <si>
+    <t>US Quevilly 0.00%</t>
+  </si>
+  <si>
+    <t>Rodez 0.00%</t>
+  </si>
+  <si>
+    <t>Niort 0.00%</t>
+  </si>
+  <si>
+    <t>Grenoble 0.00%</t>
+  </si>
+  <si>
+    <t>Dijon 0.00%</t>
+  </si>
+  <si>
+    <t>Annecy 0.00%</t>
+  </si>
+  <si>
+    <t>Sochaux 0.00%</t>
+  </si>
+  <si>
+    <t>St Etienne 0.00%</t>
+  </si>
+  <si>
+    <t>SC Bastia 0.00%</t>
+  </si>
+  <si>
+    <t>Nimes 0.00%</t>
+  </si>
+  <si>
+    <t>Amiens 0.00%</t>
+  </si>
+  <si>
+    <t>Guingamp 0.00%</t>
+  </si>
+  <si>
+    <t>Bordeaux 0.00%</t>
+  </si>
+  <si>
+    <t>Paris FC 0.00%</t>
+  </si>
+  <si>
+    <t>Rotherham 0.00%</t>
+  </si>
+  <si>
+    <t>Norwich 0.00%</t>
+  </si>
+  <si>
+    <t>Coventry 0.00%</t>
+  </si>
+  <si>
+    <t>Sheff Utd 0.00%</t>
+  </si>
+  <si>
+    <t>Sunderland 0.00%</t>
+  </si>
+  <si>
+    <t>Swansea 0.00%</t>
+  </si>
+  <si>
+    <t>Blackpool 0.00%</t>
+  </si>
+  <si>
+    <t>Wigan 0.00%</t>
+  </si>
+  <si>
+    <t>Reading 0.00%</t>
+  </si>
+  <si>
+    <t>Middlesbrough 0.00%</t>
+  </si>
+  <si>
+    <t>QPR 0.00%</t>
+  </si>
+  <si>
+    <t>Millwall 0.00%</t>
+  </si>
+  <si>
+    <t>Stoke 0.00%</t>
+  </si>
+  <si>
+    <t>Watford 0.00%</t>
+  </si>
+  <si>
+    <t>Birmingham 0.00%</t>
+  </si>
+  <si>
+    <t>Huddersfield 0.00%</t>
+  </si>
+  <si>
+    <t>Blackburn 0.00%</t>
+  </si>
+  <si>
+    <t>Cardiff 0.00%</t>
+  </si>
+  <si>
+    <t>Burnley 0.00%</t>
+  </si>
+  <si>
+    <t>West Brom 0.00%</t>
+  </si>
+  <si>
+    <t>Preston 0.00%</t>
+  </si>
+  <si>
+    <t>Luton 0.00%</t>
+  </si>
+  <si>
+    <t>Hull 0.00%</t>
+  </si>
+  <si>
+    <t>Bristol City 0.00%</t>
+  </si>
+  <si>
+    <t>Maccabi Tel Aviv 0.00%</t>
+  </si>
+  <si>
+    <t>Maccabi Bnei Raina 0.00%</t>
+  </si>
+  <si>
+    <t>Bnei Sakhnin 0.00%</t>
+  </si>
+  <si>
+    <t>Hapoel Haifa 0.00%</t>
+  </si>
+  <si>
+    <t>Sektzia Nes Tziona 0.00%</t>
+  </si>
+  <si>
+    <t>Maccabi Netanya 0.00%</t>
+  </si>
+  <si>
+    <t>Hapoel Hadera 0.00%</t>
+  </si>
+  <si>
+    <t>Hapoel Beer Sheva 0.00%</t>
+  </si>
+  <si>
+    <t>Hapoel Tel-Aviv 0.00%</t>
+  </si>
+  <si>
+    <t>MS Ashdod 0.00%</t>
+  </si>
+  <si>
+    <t>Hapoel Ironi Kiryat Shmona 0.00%</t>
+  </si>
+  <si>
+    <t>Hapoel Jerusalem FC 0.00%</t>
+  </si>
+  <si>
+    <t>Beitar Jerusalem 0.00%</t>
+  </si>
+  <si>
+    <t>Maccabi Haifa 0.00%</t>
+  </si>
+  <si>
+    <t>La Equidad 0.00%</t>
+  </si>
+  <si>
+    <t>Rionegro Aguilas 0.00%</t>
+  </si>
+  <si>
+    <t>Junior 0.00%</t>
+  </si>
+  <si>
+    <t>Alianza Petrolera 0.00%</t>
+  </si>
+  <si>
+    <t>Millonarios 0.00%</t>
+  </si>
+  <si>
+    <t>Independiente Santa Fe 0.00%</t>
+  </si>
+  <si>
+    <t>Deportivo Pasto 0.00%</t>
+  </si>
+  <si>
+    <t>Atletico Bucaramanga 0.00%</t>
+  </si>
+  <si>
+    <t>Envigado FC 0.00%</t>
+  </si>
+  <si>
+    <t>Independiente Medellin 0.00%</t>
+  </si>
+  <si>
+    <t>Once Caldas 0.00%</t>
+  </si>
+  <si>
+    <t>Boyaca Chico 0.00%</t>
+  </si>
+  <si>
+    <t>Union Magdalena 0.00%</t>
+  </si>
+  <si>
+    <t>Jaguares de Cordoba 0.00%</t>
+  </si>
+  <si>
+    <t>America de Cali 0.00%</t>
+  </si>
+  <si>
+    <t>Deportes Tolima 0.00%</t>
+  </si>
+  <si>
+    <t>Deportivo Pereira 0.00%</t>
+  </si>
+  <si>
+    <t>Atletico Nacional 0.00%</t>
+  </si>
+  <si>
+    <t>Atletico Huila 0.00%</t>
+  </si>
+  <si>
+    <t>Deportivo Cali 0.00%</t>
+  </si>
+  <si>
+    <t>Liverpool Montevideo 0.00%</t>
+  </si>
+  <si>
+    <t>Cerro 0.00%</t>
+  </si>
+  <si>
+    <t>Atletico Fenix Montevideo 0.00%</t>
+  </si>
+  <si>
+    <t>CA River Plate 0.00%</t>
+  </si>
+  <si>
+    <t>La Luz 0.00%</t>
+  </si>
+  <si>
+    <t>Nacional De Football 0.00%</t>
+  </si>
+  <si>
+    <t>Danubio 0.00%</t>
+  </si>
+  <si>
+    <t>Defensor Sporting 0.00%</t>
+  </si>
+  <si>
+    <t>Boston River 0.00%</t>
+  </si>
+  <si>
+    <t>Deportivo Maldonado 0.00%</t>
+  </si>
+  <si>
+    <t>Torque 0.00%</t>
+  </si>
+  <si>
+    <t>Racing Club de Montevideo 0.00%</t>
+  </si>
+  <si>
+    <t>Montevideo Wanderers 0.00%</t>
+  </si>
+  <si>
+    <t>Cerro Largo 0.00%</t>
+  </si>
+  <si>
+    <t>Penarol 0.00%</t>
+  </si>
+  <si>
+    <t>Plaza Colonia 0.00%</t>
   </si>
 </sst>
 </file>
